--- a/templates/templates OLD/Report Str_V2_USA.xlsx
+++ b/templates/templates OLD/Report Str_V2_USA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217D283B-C7F4-4603-9E32-CA90C8075FB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539F025-6594-4F76-A58B-05F25105DC59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37125" yWindow="-5025" windowWidth="21390" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -72,6 +72,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$M$61</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,9 +197,6 @@
   </si>
   <si>
     <t>Rev:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Test:  </t>
   </si>
   <si>
     <t xml:space="preserve">Specimens delivered by the customer. </t>
@@ -563,6 +567,9 @@
   </si>
   <si>
     <t>min  1/2 life</t>
+  </si>
+  <si>
+    <t>Testing type:</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2262,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2284,7 +2291,7 @@
     </row>
     <row r="2" spans="1:18" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="151"/>
       <c r="D2" s="151"/>
@@ -2294,7 +2301,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="151"/>
       <c r="D3" s="151"/>
@@ -2310,7 +2317,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="153"/>
       <c r="O4" s="160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" s="160"/>
       <c r="Q4" s="160"/>
@@ -2324,7 +2331,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="153"/>
@@ -2341,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="153"/>
       <c r="O6" s="160"/>
@@ -2354,7 +2361,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="153"/>
@@ -2380,7 +2387,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="153"/>
@@ -2427,13 +2434,13 @@
     </row>
     <row r="13" spans="1:18" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="163" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="163" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="164"/>
       <c r="E13" s="164"/>
@@ -2474,7 +2481,7 @@
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="161"/>
       <c r="C18" s="161"/>
@@ -2493,7 +2500,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="169"/>
       <c r="D20" s="169"/>
@@ -2514,17 +2521,17 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="29" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -2574,7 +2581,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -2584,7 +2591,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -2594,7 +2601,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -2613,7 +2620,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(K32=0,M32,L32)</f>
@@ -2624,17 +2631,17 @@
       <c r="F32" s="16"/>
       <c r="K32" s="80"/>
       <c r="L32" s="81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2644,7 +2651,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2654,7 +2661,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -2666,7 +2673,7 @@
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="161"/>
       <c r="C37" s="161"/>
@@ -2682,7 +2689,7 @@
     <row r="39" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="162"/>
       <c r="D39" s="162"/>
@@ -2705,10 +2712,10 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2721,7 +2728,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
@@ -2739,7 +2746,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="14" t="str">
         <f>CONCATENATE("Closed loop servo controlled hydraulic system of ",K43," kN capacity.")</f>
@@ -2750,7 +2757,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
       <c r="K43" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43" s="77"/>
       <c r="M43" s="77"/>
@@ -2758,7 +2765,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="78"/>
       <c r="D44" s="13"/>
@@ -2772,7 +2779,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="13" t="str">
         <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"3 zones radiant furnace",""),IF(AND(K45&gt;0,L45&gt;0)," &amp; ",""),IF(L45&gt;0,"High frequency generator induction","")))</f>
@@ -2825,13 +2832,13 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G49" s="5"/>
       <c r="K49" s="77"/>
@@ -2860,7 +2867,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -2959,7 +2966,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="83" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P1" s="84"/>
     </row>
@@ -2968,7 +2975,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="86"/>
       <c r="C5" s="87" t="s">
@@ -2978,7 +2985,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="86"/>
       <c r="C6" s="87" t="s">
@@ -2988,7 +2995,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="44" t="s">
@@ -2998,7 +3005,7 @@
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="46" t="s">
@@ -3008,7 +3015,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="46" t="s">
@@ -3018,7 +3025,7 @@
     </row>
     <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="46"/>
@@ -3026,38 +3033,38 @@
     </row>
     <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="138"/>
       <c r="B14" s="139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="140" t="s">
         <v>29</v>
@@ -3067,7 +3074,7 @@
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="142"/>
       <c r="B15" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="144" t="s">
         <v>29</v>
@@ -3076,7 +3083,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="52" t="s">
@@ -3086,43 +3093,43 @@
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="116" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>71</v>
       </c>
       <c r="D20" s="132"/>
     </row>
@@ -3132,7 +3139,7 @@
       </c>
       <c r="B21" s="115"/>
       <c r="C21" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="54"/>
     </row>
@@ -3150,93 +3157,93 @@
       </c>
       <c r="B23" s="115"/>
       <c r="C23" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="115"/>
       <c r="C24" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="60"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="118"/>
       <c r="C25" s="110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="61"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="62"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="54"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="107" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="110" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="110" t="s">
-        <v>76</v>
       </c>
       <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
@@ -3244,85 +3251,85 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="158" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="159" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" s="159" t="s">
-        <v>126</v>
       </c>
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="158" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="159" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="159" t="s">
-        <v>79</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="159" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="158" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="159" t="s">
-        <v>79</v>
       </c>
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="159" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="158" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="159" t="s">
-        <v>76</v>
       </c>
       <c r="D37" s="64"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="159" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="158" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="159" t="s">
-        <v>76</v>
       </c>
       <c r="D38" s="64"/>
     </row>
@@ -3341,7 +3348,7 @@
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="89"/>
       <c r="B41" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="91"/>
       <c r="D41" s="92"/>
@@ -3349,7 +3356,7 @@
     <row r="42" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="93"/>
       <c r="B42" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="95"/>
       <c r="D42" s="96"/>
@@ -3368,7 +3375,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="127"/>
       <c r="C45" s="128"/>
@@ -3376,7 +3383,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="134" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="135"/>
       <c r="C46" s="136" t="s">
@@ -3386,7 +3393,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="135"/>
       <c r="C47" s="136" t="s">
@@ -3396,7 +3403,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="86"/>
       <c r="C48" s="146" t="s">
@@ -3406,7 +3413,7 @@
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="42"/>
       <c r="C49" s="46"/>
@@ -3414,7 +3421,7 @@
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="42"/>
       <c r="C50" s="46"/>
@@ -3422,17 +3429,17 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="42"/>
       <c r="C51" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="45"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="46" t="s">
@@ -3442,11 +3449,11 @@
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="42"/>
       <c r="C53" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="66"/>
     </row>
@@ -3872,7 +3879,7 @@
     </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="67"/>
       <c r="C60" s="68" t="s">
@@ -3958,10 +3965,10 @@
     <row r="1" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="72"/>
       <c r="D1" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="74"/>
       <c r="H1" s="75">
@@ -3970,7 +3977,7 @@
       </c>
       <c r="I1" s="75"/>
       <c r="N1" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O1" s="74"/>
       <c r="P1" s="75">
@@ -4138,6 +4145,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4302,22 +4324,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4334,29 +4366,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>